--- a/processed_data/data_description.xlsx
+++ b/processed_data/data_description.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="missing rates" sheetId="1" r:id="rId1"/>
     <sheet name="selected variables" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="class distribution" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>Variable</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Respiration rate (breaths per minute)</t>
   </si>
   <si>
-    <t>EtCO2</t>
-  </si>
-  <si>
-    <t>End tidal carbon dioxide (mm Hg)</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -130,12 +124,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>For sepsis patients, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFBD4147"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>SepsisLabel</t>
@@ -261,6 +262,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFBD4147"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>SepsisLabel</t>
@@ -290,10 +292,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -308,6 +310,142 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,154 +457,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFBD4147"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212529"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14.5"/>
@@ -496,103 +496,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,79 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +720,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -745,16 +754,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,21 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -796,6 +790,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,162 +817,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1355,7 +1355,7 @@
         <v>1609</v>
       </c>
       <c r="D2" s="6">
-        <f>C2/(B2+C2)</f>
+        <f t="shared" ref="D2:D42" si="0">C2/(B2+C2)</f>
         <v>0.0828356672158155</v>
       </c>
       <c r="F2"/>
@@ -1373,7 +1373,7 @@
         <v>2477</v>
       </c>
       <c r="D3" s="6">
-        <f>C3/(B3+C3)</f>
+        <f t="shared" si="0"/>
         <v>0.127522652388797</v>
       </c>
       <c r="F3"/>
@@ -1391,7 +1391,7 @@
         <v>12586</v>
       </c>
       <c r="D4" s="6">
-        <f>C4/(B4+C4)</f>
+        <f t="shared" si="0"/>
         <v>0.647961285008237</v>
       </c>
       <c r="F4"/>
@@ -1409,7 +1409,7 @@
         <v>3031</v>
       </c>
       <c r="D5" s="6">
-        <f>C5/(B5+C5)</f>
+        <f t="shared" si="0"/>
         <v>0.156044069192751</v>
       </c>
       <c r="F5"/>
@@ -1427,7 +1427,7 @@
         <v>2089</v>
       </c>
       <c r="D6" s="6">
-        <f>C6/(B6+C6)</f>
+        <f t="shared" si="0"/>
         <v>0.107547364085667</v>
       </c>
       <c r="F6"/>
@@ -1445,7 +1445,7 @@
         <v>9283</v>
       </c>
       <c r="D7" s="6">
-        <f>C7/(B7+C7)</f>
+        <f t="shared" si="0"/>
         <v>0.47791392092257</v>
       </c>
       <c r="F7"/>
@@ -1463,7 +1463,7 @@
         <v>2280</v>
       </c>
       <c r="D8" s="6">
-        <f>C8/(B8+C8)</f>
+        <f t="shared" si="0"/>
         <v>0.117380560131796</v>
       </c>
       <c r="F8"/>
@@ -1475,14 +1475,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
         <v>19424</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
       <c r="D9" s="6">
-        <f>C9/(B9+C9)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1499,7 +1499,7 @@
         <v>17209</v>
       </c>
       <c r="D10" s="6">
-        <f>C10/(B10+C10)</f>
+        <f t="shared" si="0"/>
         <v>0.885965815485997</v>
       </c>
       <c r="F10"/>
@@ -1517,7 +1517,7 @@
         <v>17790</v>
       </c>
       <c r="D11" s="6">
-        <f>C11/(B11+C11)</f>
+        <f t="shared" si="0"/>
         <v>0.91587726523888</v>
       </c>
       <c r="F11"/>
@@ -1535,7 +1535,7 @@
         <v>16651</v>
       </c>
       <c r="D12" s="6">
-        <f>C12/(B12+C12)</f>
+        <f t="shared" si="0"/>
         <v>0.857238467874794</v>
       </c>
       <c r="F12"/>
@@ -1553,7 +1553,7 @@
         <v>16958</v>
       </c>
       <c r="D13" s="6">
-        <f>C13/(B13+C13)</f>
+        <f t="shared" si="0"/>
         <v>0.873043657331137</v>
       </c>
       <c r="F13"/>
@@ -1571,7 +1571,7 @@
         <v>17604</v>
       </c>
       <c r="D14" s="6">
-        <f>C14/(B14+C14)</f>
+        <f t="shared" si="0"/>
         <v>0.906301482701812</v>
       </c>
       <c r="F14"/>
@@ -1589,7 +1589,7 @@
         <v>18348</v>
       </c>
       <c r="D15" s="6">
-        <f>C15/(B15+C15)</f>
+        <f t="shared" si="0"/>
         <v>0.944604612850082</v>
       </c>
       <c r="F15"/>
@@ -1607,7 +1607,7 @@
         <v>19088</v>
       </c>
       <c r="D16" s="6">
-        <f>C16/(B16+C16)</f>
+        <f t="shared" si="0"/>
         <v>0.982701812191104</v>
       </c>
       <c r="F16"/>
@@ -1625,7 +1625,7 @@
         <v>17793</v>
       </c>
       <c r="D17" s="6">
-        <f>C17/(B17+C17)</f>
+        <f t="shared" si="0"/>
         <v>0.916031713344316</v>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
         <v>19093</v>
       </c>
       <c r="D18" s="6">
-        <f>C18/(B18+C18)</f>
+        <f t="shared" si="0"/>
         <v>0.982959225700165</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
         <v>18522</v>
       </c>
       <c r="D19" s="6">
-        <f>C19/(B19+C19)</f>
+        <f t="shared" si="0"/>
         <v>0.953562602965404</v>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
         <v>17757</v>
       </c>
       <c r="D20" s="6">
-        <f>C20/(B20+C20)</f>
+        <f t="shared" si="0"/>
         <v>0.914178336079077</v>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
         <v>18146</v>
       </c>
       <c r="D21" s="6">
-        <f>C21/(B21+C21)</f>
+        <f t="shared" si="0"/>
         <v>0.93420510708402</v>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
         <v>19384</v>
       </c>
       <c r="D22" s="6">
-        <f>C22/(B22+C22)</f>
+        <f t="shared" si="0"/>
         <v>0.997940691927512</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>16971</v>
       </c>
       <c r="D23" s="6">
-        <f>C23/(B23+C23)</f>
+        <f t="shared" si="0"/>
         <v>0.873712932454695</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>18647</v>
       </c>
       <c r="D24" s="6">
-        <f>C24/(B24+C24)</f>
+        <f t="shared" si="0"/>
         <v>0.959997940691928</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
         <v>17843</v>
       </c>
       <c r="D25" s="6">
-        <f>C25/(B25+C25)</f>
+        <f t="shared" si="0"/>
         <v>0.918605848434926</v>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
         <v>18476</v>
       </c>
       <c r="D26" s="6">
-        <f>C26/(B26+C26)</f>
+        <f t="shared" si="0"/>
         <v>0.951194398682043</v>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
         <v>17153</v>
       </c>
       <c r="D27" s="6">
-        <f>C27/(B27+C27)</f>
+        <f t="shared" si="0"/>
         <v>0.883082784184514</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
         <v>19182</v>
       </c>
       <c r="D28" s="6">
-        <f>C28/(B28+C28)</f>
+        <f t="shared" si="0"/>
         <v>0.98754118616145</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>19384</v>
       </c>
       <c r="D29" s="6">
-        <f>C29/(B29+C29)</f>
+        <f t="shared" si="0"/>
         <v>0.997940691927512</v>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>16965</v>
       </c>
       <c r="D30" s="6">
-        <f>C30/(B30+C30)</f>
+        <f t="shared" si="0"/>
         <v>0.873404036243822</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
         <v>17593</v>
       </c>
       <c r="D31" s="6">
-        <f>C31/(B31+C31)</f>
+        <f t="shared" si="0"/>
         <v>0.905735172981878</v>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
         <v>18477</v>
       </c>
       <c r="D32" s="6">
-        <f>C32/(B32+C32)</f>
+        <f t="shared" si="0"/>
         <v>0.951245881383855</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
         <v>17877</v>
       </c>
       <c r="D33" s="6">
-        <f>C33/(B33+C33)</f>
+        <f t="shared" si="0"/>
         <v>0.92035626029654</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>19224</v>
       </c>
       <c r="D34" s="6">
-        <f>C34/(B34+C34)</f>
+        <f t="shared" si="0"/>
         <v>0.989703459637562</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
         <v>18121</v>
       </c>
       <c r="D35" s="6">
-        <f>C35/(B35+C35)</f>
+        <f t="shared" si="0"/>
         <v>0.932918039538715</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="6">
-        <f>C36/(B36+C36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="6">
-        <f>C37/(B37+C37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         <v>8652</v>
       </c>
       <c r="D38" s="6">
-        <f>C38/(B38+C38)</f>
+        <f t="shared" si="0"/>
         <v>0.445428336079077</v>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         <v>8652</v>
       </c>
       <c r="D39" s="6">
-        <f>C39/(B39+C39)</f>
+        <f t="shared" si="0"/>
         <v>0.445428336079077</v>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="6">
-        <f>C40/(B40+C40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="6">
-        <f>C41/(B41+C41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="6">
-        <f>C42/(B42+C42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2016,10 +2016,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2126,7 +2126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="14.75" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2140,9 +2140,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="14.75" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -2154,9 +2154,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.75" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="11" ht="14.75" spans="1:4">
       <c r="A11" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>0.445428336079077</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="12" ht="14.75" spans="1:4">
       <c r="A12" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4">
         <v>0.445428336079077</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="13" ht="14.75" spans="1:4">
       <c r="A13" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4">
-        <v>0.445428336079077</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="14" ht="14.75" spans="1:4">
       <c r="A14" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -2224,9 +2224,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="14.75" spans="1:4">
+    <row r="15" ht="59.75" spans="1:4">
       <c r="A15" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -2236,20 +2236,6 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="57.75" spans="1:4">
-      <c r="A16" s="3">
-        <v>41</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2250,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2274,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -2285,7 +2271,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>18992</v>
@@ -2296,7 +2282,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
         <f>B2/(B2+C2)</f>

--- a/processed_data/data_description.xlsx
+++ b/processed_data/data_description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="16540" activeTab="2"/>
+    <workbookView windowWidth="18860" windowHeight="16540" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="missing rates" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>Variable</t>
   </si>
@@ -278,6 +278,12 @@
     </r>
   </si>
   <si>
+    <t>Vital sighs</t>
+  </si>
+  <si>
+    <t>Demographic data</t>
+  </si>
+  <si>
     <t>class</t>
   </si>
   <si>
@@ -293,11 +299,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +319,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +426,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -359,70 +442,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,25 +457,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -496,7 +508,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,13 +622,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,97 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,42 +676,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -720,26 +732,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,47 +749,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -812,6 +772,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -822,152 +847,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +1007,9 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1048,6 +1076,1777 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Missing rates for all variables</a:t>
+            </a:r>
+            <a:endParaRPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'missing rates'!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0828356672158155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.107547364085667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.117380560131796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.127522652388797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.156044069192751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.445428336079077</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.445428336079077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47791392092257</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.647961285008237</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.857238467874794</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.873043657331137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.873404036243822</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.873712932454695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.883082784184514</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.885965815485997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.905735172981878</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.906301482701812</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.914178336079077</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91587726523888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.916031713344316</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.918605848434926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92035626029654</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.932918039538715</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93420510708402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.944604612850082</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.951194398682043</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.951245881383855</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.953562602965404</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.959997940691928</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.982701812191104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.982959225700165</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.98754118616145</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.989703459637562</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.997940691927512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.997940691927512</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="297723998"/>
+        <c:axId val="400256134"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="297723998"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400256134"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="400256134"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297723998"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Missing rates for selected variables</a:t>
+            </a:r>
+            <a:endParaRPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'missing rates'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0828356672158155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.107547364085667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.117380560131796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.127522652388797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.156044069192751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.445428336079077</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.445428336079077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47791392092257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="211369116"/>
+        <c:axId val="410205953"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="211369116"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410205953"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410205953"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211369116"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208915</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2281555</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3987800" y="2730500"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>250190</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2322830</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4029075" y="5818505"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,20 +3110,20 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5078125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.0234375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="11.328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.421875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="33.71875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9.5078125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.0234375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="11.328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.421875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="33.71875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.75" spans="1:8">
@@ -1346,17 +3145,17 @@
     </row>
     <row r="2" ht="14.75" spans="1:8">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
-        <v>17815</v>
+        <v>19424</v>
       </c>
       <c r="C2" s="3">
-        <v>1609</v>
-      </c>
-      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D42" si="0">C2/(B2+C2)</f>
-        <v>0.0828356672158155</v>
+        <v>0</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -1364,17 +3163,17 @@
     </row>
     <row r="3" ht="14.75" spans="1:8">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
-        <v>16947</v>
+        <v>19424</v>
       </c>
       <c r="C3" s="3">
-        <v>2477</v>
-      </c>
-      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <f t="shared" si="0"/>
-        <v>0.127522652388797</v>
+        <v>0</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -1382,17 +3181,17 @@
     </row>
     <row r="4" ht="14.75" spans="1:8">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
-        <v>6838</v>
+        <v>19424</v>
       </c>
       <c r="C4" s="3">
-        <v>12586</v>
-      </c>
-      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
-        <v>0.647961285008237</v>
+        <v>0</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -1400,17 +3199,17 @@
     </row>
     <row r="5" ht="14.75" spans="1:8">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
-        <v>16393</v>
+        <v>19424</v>
       </c>
       <c r="C5" s="3">
-        <v>3031</v>
-      </c>
-      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>0.156044069192751</v>
+        <v>0</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -1418,17 +3217,17 @@
     </row>
     <row r="6" ht="14.75" spans="1:8">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3">
-        <v>17335</v>
+        <v>19424</v>
       </c>
       <c r="C6" s="3">
-        <v>2089</v>
-      </c>
-      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.107547364085667</v>
+        <v>0</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1436,17 +3235,17 @@
     </row>
     <row r="7" ht="14.75" spans="1:8">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>10141</v>
+        <v>17815</v>
       </c>
       <c r="C7" s="3">
-        <v>9283</v>
-      </c>
-      <c r="D7" s="6">
+        <v>1609</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.47791392092257</v>
+        <v>0.0828356672158155</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1454,17 +3253,17 @@
     </row>
     <row r="8" ht="14.75" spans="1:8">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>17144</v>
+        <v>17335</v>
       </c>
       <c r="C8" s="3">
-        <v>2280</v>
-      </c>
-      <c r="D8" s="6">
+        <v>2089</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.117380560131796</v>
+        <v>0.107547364085667</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -1472,17 +3271,17 @@
     </row>
     <row r="9" ht="14.75" spans="1:8">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>17144</v>
       </c>
       <c r="C9" s="3">
-        <v>19424</v>
-      </c>
-      <c r="D9" s="6">
+        <v>2280</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.117380560131796</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1490,17 +3289,17 @@
     </row>
     <row r="10" ht="14.75" spans="1:8">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>2215</v>
+        <v>16947</v>
       </c>
       <c r="C10" s="3">
-        <v>17209</v>
-      </c>
-      <c r="D10" s="6">
+        <v>2477</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>0.885965815485997</v>
+        <v>0.127522652388797</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1508,17 +3307,17 @@
     </row>
     <row r="11" ht="14.75" spans="1:8">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>1634</v>
+        <v>16393</v>
       </c>
       <c r="C11" s="3">
-        <v>17790</v>
-      </c>
-      <c r="D11" s="6">
+        <v>3031</v>
+      </c>
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>0.91587726523888</v>
+        <v>0.156044069192751</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1526,17 +3325,17 @@
     </row>
     <row r="12" ht="14.75" spans="1:8">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3">
-        <v>2773</v>
+        <v>10772</v>
       </c>
       <c r="C12" s="3">
-        <v>16651</v>
-      </c>
-      <c r="D12" s="6">
+        <v>8652</v>
+      </c>
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0.857238467874794</v>
+        <v>0.445428336079077</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -1544,17 +3343,17 @@
     </row>
     <row r="13" ht="14.75" spans="1:8">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
-        <v>2466</v>
+        <v>10772</v>
       </c>
       <c r="C13" s="3">
-        <v>16958</v>
-      </c>
-      <c r="D13" s="6">
+        <v>8652</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0.873043657331137</v>
+        <v>0.445428336079077</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -1562,17 +3361,17 @@
     </row>
     <row r="14" ht="14.75" spans="1:8">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>1820</v>
+        <v>10141</v>
       </c>
       <c r="C14" s="3">
-        <v>17604</v>
-      </c>
-      <c r="D14" s="6">
+        <v>9283</v>
+      </c>
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>0.906301482701812</v>
+        <v>0.47791392092257</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -1580,17 +3379,17 @@
     </row>
     <row r="15" ht="14.75" spans="1:8">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>1076</v>
+        <v>6838</v>
       </c>
       <c r="C15" s="3">
-        <v>18348</v>
-      </c>
-      <c r="D15" s="6">
+        <v>12586</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>0.944604612850082</v>
+        <v>0.647961285008237</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -1598,17 +3397,17 @@
     </row>
     <row r="16" ht="14.75" spans="1:8">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>336</v>
+        <v>2773</v>
       </c>
       <c r="C16" s="3">
-        <v>19088</v>
-      </c>
-      <c r="D16" s="6">
+        <v>16651</v>
+      </c>
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>0.982701812191104</v>
+        <v>0.857238467874794</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1616,416 +3415,420 @@
     </row>
     <row r="17" ht="14.75" spans="1:4">
       <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2466</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16958</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.873043657331137</v>
+      </c>
+    </row>
+    <row r="18" ht="14.75" spans="1:4">
+      <c r="A18" s="3">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2459</v>
+      </c>
+      <c r="C18" s="3">
+        <v>16965</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.873404036243822</v>
+      </c>
+    </row>
+    <row r="19" ht="14.75" spans="1:4">
+      <c r="A19" s="3">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2453</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16971</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.873712932454695</v>
+      </c>
+    </row>
+    <row r="20" ht="14.75" spans="1:4">
+      <c r="A20" s="3">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2271</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17153</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.883082784184514</v>
+      </c>
+    </row>
+    <row r="21" ht="14.75" spans="1:4">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2215</v>
+      </c>
+      <c r="C21" s="3">
+        <v>17209</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.885965815485997</v>
+      </c>
+    </row>
+    <row r="22" ht="14.75" spans="1:4">
+      <c r="A22" s="3">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1831</v>
+      </c>
+      <c r="C22" s="3">
+        <v>17593</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.905735172981878</v>
+      </c>
+    </row>
+    <row r="23" ht="14.75" spans="1:4">
+      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1820</v>
+      </c>
+      <c r="C23" s="3">
+        <v>17604</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.906301482701812</v>
+      </c>
+    </row>
+    <row r="24" ht="14.75" spans="1:4">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1667</v>
+      </c>
+      <c r="C24" s="3">
+        <v>17757</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.914178336079077</v>
+      </c>
+    </row>
+    <row r="25" ht="14.75" spans="1:4">
+      <c r="A25" s="3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1634</v>
+      </c>
+      <c r="C25" s="3">
+        <v>17790</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.91587726523888</v>
+      </c>
+    </row>
+    <row r="26" ht="14.75" spans="1:4">
+      <c r="A26" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B26" s="3">
         <v>1631</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C26" s="3">
         <v>17793</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
         <v>0.916031713344316</v>
       </c>
     </row>
-    <row r="18" ht="14.75" spans="1:4">
-      <c r="A18" s="3">
+    <row r="27" ht="14.75" spans="1:4">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1581</v>
+      </c>
+      <c r="C27" s="3">
+        <v>17843</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.918605848434926</v>
+      </c>
+    </row>
+    <row r="28" ht="14.75" spans="1:4">
+      <c r="A28" s="3">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1547</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17877</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.92035626029654</v>
+      </c>
+    </row>
+    <row r="29" ht="14.75" spans="1:4">
+      <c r="A29" s="3">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1303</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18121</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.932918039538715</v>
+      </c>
+    </row>
+    <row r="30" ht="14.75" spans="1:4">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1278</v>
+      </c>
+      <c r="C30" s="3">
+        <v>18146</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93420510708402</v>
+      </c>
+    </row>
+    <row r="31" ht="14.75" spans="1:4">
+      <c r="A31" s="3">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1076</v>
+      </c>
+      <c r="C31" s="3">
+        <v>18348</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.944604612850082</v>
+      </c>
+    </row>
+    <row r="32" ht="14.75" spans="1:4">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3">
+        <v>948</v>
+      </c>
+      <c r="C32" s="3">
+        <v>18476</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.951194398682043</v>
+      </c>
+    </row>
+    <row r="33" ht="14.75" spans="1:4">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>947</v>
+      </c>
+      <c r="C33" s="3">
+        <v>18477</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.951245881383855</v>
+      </c>
+    </row>
+    <row r="34" ht="14.75" spans="1:4">
+      <c r="A34" s="3">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3">
+        <v>902</v>
+      </c>
+      <c r="C34" s="3">
+        <v>18522</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>0.953562602965404</v>
+      </c>
+    </row>
+    <row r="35" ht="14.75" spans="1:4">
+      <c r="A35" s="3">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3">
+        <v>777</v>
+      </c>
+      <c r="C35" s="3">
+        <v>18647</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.959997940691928</v>
+      </c>
+    </row>
+    <row r="36" ht="14.75" spans="1:4">
+      <c r="A36" s="3">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3">
+        <v>336</v>
+      </c>
+      <c r="C36" s="3">
+        <v>19088</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>0.982701812191104</v>
+      </c>
+    </row>
+    <row r="37" ht="14.75" spans="1:4">
+      <c r="A37" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B37" s="3">
         <v>331</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C37" s="3">
         <v>19093</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D37" s="7">
         <f t="shared" si="0"/>
         <v>0.982959225700165</v>
       </c>
     </row>
-    <row r="19" ht="14.75" spans="1:4">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>902</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18522</v>
-      </c>
-      <c r="D19" s="6">
+    <row r="38" ht="14.75" spans="1:4">
+      <c r="A38" s="3">
+        <v>27</v>
+      </c>
+      <c r="B38" s="3">
+        <v>242</v>
+      </c>
+      <c r="C38" s="3">
+        <v>19182</v>
+      </c>
+      <c r="D38" s="7">
         <f t="shared" si="0"/>
-        <v>0.953562602965404</v>
-      </c>
-    </row>
-    <row r="20" ht="14.75" spans="1:4">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1667</v>
-      </c>
-      <c r="C20" s="3">
-        <v>17757</v>
-      </c>
-      <c r="D20" s="6">
+        <v>0.98754118616145</v>
+      </c>
+    </row>
+    <row r="39" ht="14.75" spans="1:4">
+      <c r="A39" s="3">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3">
+        <v>200</v>
+      </c>
+      <c r="C39" s="3">
+        <v>19224</v>
+      </c>
+      <c r="D39" s="7">
         <f t="shared" si="0"/>
-        <v>0.914178336079077</v>
-      </c>
-    </row>
-    <row r="21" ht="14.75" spans="1:4">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1278</v>
-      </c>
-      <c r="C21" s="3">
-        <v>18146</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.93420510708402</v>
-      </c>
-    </row>
-    <row r="22" ht="14.75" spans="1:4">
-      <c r="A22" s="3">
+        <v>0.989703459637562</v>
+      </c>
+    </row>
+    <row r="40" ht="14.75" spans="1:4">
+      <c r="A40" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B40" s="3">
         <v>40</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C40" s="3">
         <v>19384</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D40" s="7">
         <f t="shared" si="0"/>
         <v>0.997940691927512</v>
       </c>
     </row>
-    <row r="23" ht="14.75" spans="1:4">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2453</v>
-      </c>
-      <c r="C23" s="3">
-        <v>16971</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.873712932454695</v>
-      </c>
-    </row>
-    <row r="24" ht="14.75" spans="1:4">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>777</v>
-      </c>
-      <c r="C24" s="3">
-        <v>18647</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.959997940691928</v>
-      </c>
-    </row>
-    <row r="25" ht="14.75" spans="1:4">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1581</v>
-      </c>
-      <c r="C25" s="3">
-        <v>17843</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.918605848434926</v>
-      </c>
-    </row>
-    <row r="26" ht="14.75" spans="1:4">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>948</v>
-      </c>
-      <c r="C26" s="3">
-        <v>18476</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.951194398682043</v>
-      </c>
-    </row>
-    <row r="27" ht="14.75" spans="1:4">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2271</v>
-      </c>
-      <c r="C27" s="3">
-        <v>17153</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.883082784184514</v>
-      </c>
-    </row>
-    <row r="28" ht="14.75" spans="1:4">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>242</v>
-      </c>
-      <c r="C28" s="3">
-        <v>19182</v>
-      </c>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.98754118616145</v>
-      </c>
-    </row>
-    <row r="29" ht="14.75" spans="1:4">
-      <c r="A29" s="3">
+    <row r="41" ht="14.75" spans="1:4">
+      <c r="A41" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C41" s="3">
         <v>19384</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D41" s="7">
         <f t="shared" si="0"/>
         <v>0.997940691927512</v>
       </c>
     </row>
-    <row r="30" ht="14.75" spans="1:4">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2459</v>
-      </c>
-      <c r="C30" s="3">
-        <v>16965</v>
-      </c>
-      <c r="D30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.873404036243822</v>
-      </c>
-    </row>
-    <row r="31" ht="14.75" spans="1:4">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1831</v>
-      </c>
-      <c r="C31" s="3">
-        <v>17593</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.905735172981878</v>
-      </c>
-    </row>
-    <row r="32" ht="14.75" spans="1:4">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>947</v>
-      </c>
-      <c r="C32" s="3">
-        <v>18477</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.951245881383855</v>
-      </c>
-    </row>
-    <row r="33" ht="14.75" spans="1:4">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1547</v>
-      </c>
-      <c r="C33" s="3">
-        <v>17877</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>0.92035626029654</v>
-      </c>
-    </row>
-    <row r="34" ht="14.75" spans="1:4">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>200</v>
-      </c>
-      <c r="C34" s="3">
-        <v>19224</v>
-      </c>
-      <c r="D34" s="6">
-        <f t="shared" si="0"/>
-        <v>0.989703459637562</v>
-      </c>
-    </row>
-    <row r="35" ht="14.75" spans="1:4">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1303</v>
-      </c>
-      <c r="C35" s="3">
-        <v>18121</v>
-      </c>
-      <c r="D35" s="6">
-        <f t="shared" si="0"/>
-        <v>0.932918039538715</v>
-      </c>
-    </row>
-    <row r="36" ht="14.75" spans="1:4">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>19424</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.75" spans="1:4">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>19424</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.75" spans="1:4">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>10772</v>
-      </c>
-      <c r="C38" s="3">
-        <v>8652</v>
-      </c>
-      <c r="D38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.445428336079077</v>
-      </c>
-    </row>
-    <row r="39" ht="14.75" spans="1:4">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>10772</v>
-      </c>
-      <c r="C39" s="3">
-        <v>8652</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" si="0"/>
-        <v>0.445428336079077</v>
-      </c>
-    </row>
-    <row r="40" ht="14.75" spans="1:4">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>19424</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.75" spans="1:4">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>19424</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="42" ht="14.75" spans="1:4">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
         <v>19424</v>
       </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="D42" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D42">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="40.4921875" customWidth="1"/>
+    <col min="5" max="5" width="11.9765625" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="37.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.75" spans="1:4">
@@ -2126,7 +3929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="14.75" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2140,7 +3943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="14.75" spans="1:4">
       <c r="A9" s="3">
         <v>35</v>
       </c>
@@ -2154,7 +3957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.75" spans="1:4">
       <c r="A10" s="3">
         <v>36</v>
       </c>
@@ -2238,7 +4041,132 @@
         <v>35</v>
       </c>
     </row>
+    <row r="24" ht="14.75" spans="5:7">
+      <c r="E24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="14.75" spans="5:7">
+      <c r="E25" s="5"/>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="14.75" spans="5:7">
+      <c r="E26" s="5"/>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="14.75" spans="5:7">
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" ht="14.75" spans="5:7">
+      <c r="E28" s="5"/>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="14.75" spans="5:7">
+      <c r="E29" s="5"/>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="14.75" spans="5:7">
+      <c r="E30" s="5"/>
+      <c r="F30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="14.75" spans="5:7">
+      <c r="E31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" ht="14.75" spans="5:7">
+      <c r="E32" s="5"/>
+      <c r="F32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" ht="14.75" spans="5:7">
+      <c r="E33" s="5"/>
+      <c r="F33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="14.75" spans="5:7">
+      <c r="E34" s="5"/>
+      <c r="F34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="14.75" spans="5:7">
+      <c r="E35" s="5"/>
+      <c r="F35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" ht="14.75" spans="5:7">
+      <c r="E36" s="5"/>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="E31:E36"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2250,7 +4178,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2260,7 +4188,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -2271,7 +4199,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>18992</v>
@@ -2282,7 +4210,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <f>B2/(B2+C2)</f>
